--- a/Assets/Isometric/Templates/WeaponTemplate.xlsx
+++ b/Assets/Isometric/Templates/WeaponTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project_GA\Assets\Isometric\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA613B0-5D35-41F5-B07E-CC738CE87C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAED283-518E-44CD-822E-BF67B22757C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" activeTab="2" xr2:uid="{3D8C3ADE-A0B9-40A6-BA39-09BA3423E69B}"/>
   </bookViews>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackRangeVale1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRangeVale2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타겟팅</t>
   </si>
   <si>
@@ -214,6 +206,14 @@
   </si>
   <si>
     <t>Sprite/Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRangeValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRangeValue2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,7 @@
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,19 +694,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -714,10 +714,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="6">
         <v>10</v>
@@ -726,7 +726,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>IFERROR(VLOOKUP(F2,참조!$A$2:$B$6,2,FALSE),"none")</f>
@@ -752,10 +752,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>IFERROR(VLOOKUP(F3,참조!$A$2:$B$6,2,FALSE),"none")</f>
@@ -790,10 +790,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6">
         <v>15</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>IFERROR(VLOOKUP(F4,참조!$A$2:$B$6,2,FALSE),"none")</f>
@@ -828,10 +828,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6">
         <v>15</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>IFERROR(VLOOKUP(F5,참조!$A$2:$B$6,2,FALSE),"none")</f>
@@ -874,7 +874,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,148 +890,149 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1040,7 +1041,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,11 +1082,11 @@
       </c>
       <c r="G1" t="str">
         <f>실제!H1</f>
-        <v>AttackRangeVale1</v>
+        <v>AttackRangeValue1</v>
       </c>
       <c r="H1" t="str">
         <f>실제!J1</f>
-        <v>AttackRangeVale2</v>
+        <v>AttackRangeValue2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1111,7 +1112,7 @@
       </c>
       <c r="F2">
         <f>실제!F2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f>실제!H2</f>
@@ -1145,7 +1146,7 @@
       </c>
       <c r="F3">
         <f>실제!F3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f>실제!H3</f>
@@ -1179,7 +1180,7 @@
       </c>
       <c r="F4">
         <f>실제!F4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f>실제!H4</f>
@@ -1213,7 +1214,7 @@
       </c>
       <c r="F5">
         <f>실제!F5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f>실제!H5</f>

--- a/Assets/Isometric/Templates/WeaponTemplate.xlsx
+++ b/Assets/Isometric/Templates/WeaponTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project_GA\Assets\Isometric\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAED283-518E-44CD-822E-BF67B22757C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A47BB93-E918-4583-937C-50A01A64A4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" activeTab="2" xr2:uid="{3D8C3ADE-A0B9-40A6-BA39-09BA3423E69B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>TemplateID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,14 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Laser Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#공격 범위 변수 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +206,44 @@
   </si>
   <si>
     <t>AttackRangeValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemaluminumbat</t>
+  </si>
+  <si>
+    <t>BC32</t>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickFuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser Gun 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser Gun 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -310,13 +340,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +377,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60859EBD-722A-4E94-97D7-89616424D84A}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,16 +741,16 @@
         <v>23</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -714,10 +758,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6">
         <v>10</v>
@@ -726,7 +770,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>IFERROR(VLOOKUP(F2,참조!$A$2:$B$6,2,FALSE),"none")</f>
@@ -752,10 +796,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="6">
         <v>15</v>
@@ -764,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>IFERROR(VLOOKUP(F3,참조!$A$2:$B$6,2,FALSE),"none")</f>
@@ -790,37 +834,37 @@
         <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6">
         <v>15</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>IFERROR(VLOOKUP(F4,참조!$A$2:$B$6,2,FALSE),"none")</f>
         <v>원거리(직사)</v>
       </c>
       <c r="H4" s="6">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>VLOOKUP(F4,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H4&amp;" "&amp;VLOOKUP(F4,참조!$A$2:$H$6,6,FALSE)</f>
-        <v>탄퍼짐 3 도</v>
+        <v>탄퍼짐 180 도</v>
       </c>
       <c r="J4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6" t="str">
         <f>VLOOKUP(F4,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J4&amp;" "&amp;VLOOKUP(F4,참조!$A$2:$H$6,8,FALSE)</f>
-        <v>관통 1 비관통</v>
+        <v>관통 0 비관통</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -828,37 +872,227 @@
         <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6">
         <v>15</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>IFERROR(VLOOKUP(F5,참조!$A$2:$B$6,2,FALSE),"none")</f>
-        <v>원거리(발사체)</v>
+        <v>원거리(직사)</v>
       </c>
       <c r="H5" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>VLOOKUP(F5,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H5&amp;" "&amp;VLOOKUP(F5,참조!$A$2:$H$6,6,FALSE)</f>
-        <v>탄속 3 타일</v>
+        <v>탄퍼짐 20 도</v>
       </c>
       <c r="J5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6" t="str">
         <f>VLOOKUP(F5,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J5&amp;" "&amp;VLOOKUP(F5,참조!$A$2:$H$6,8,FALSE)</f>
+        <v>관통 0 비관통</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>IFERROR(VLOOKUP(F6,참조!$A$2:$B$6,2,FALSE),"none")</f>
+        <v>원거리(직사)</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>VLOOKUP(F6,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H6&amp;" "&amp;VLOOKUP(F6,참조!$A$2:$H$6,6,FALSE)</f>
+        <v>탄퍼짐 5 도</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f>VLOOKUP(F6,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J6&amp;" "&amp;VLOOKUP(F6,참조!$A$2:$H$6,8,FALSE)</f>
+        <v>관통 0 비관통</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>106</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IFERROR(VLOOKUP(F7,참조!$A$2:$B$6,2,FALSE),"none")</f>
+        <v>원거리(발사체)</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>VLOOKUP(F7,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H7&amp;" "&amp;VLOOKUP(F7,참조!$A$2:$H$6,6,FALSE)</f>
+        <v>탄속 3 타일</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f>VLOOKUP(F7,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J7&amp;" "&amp;VLOOKUP(F7,참조!$A$2:$H$6,8,FALSE)</f>
         <v>탄 크기 1 타일</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IFERROR(VLOOKUP(F8,참조!$A$2:$B$6,2,FALSE),"none")</f>
+        <v>근거리 – 원형</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP(F8,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H8&amp;" "&amp;VLOOKUP(F8,참조!$A$2:$H$6,6,FALSE)</f>
+        <v>반지름 3 타일</v>
+      </c>
+      <c r="J8" s="7">
+        <v>120</v>
+      </c>
+      <c r="K8" t="str">
+        <f>VLOOKUP(F8,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J8&amp;" "&amp;VLOOKUP(F8,참조!$A$2:$H$6,8,FALSE)</f>
+        <v>각도 120 도</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IFERROR(VLOOKUP(F9,참조!$A$2:$B$6,2,FALSE),"none")</f>
+        <v>타겟팅</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(F9,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H9&amp;" "&amp;VLOOKUP(F9,참조!$A$2:$H$6,6,FALSE)</f>
+        <v>반지름 5 타일</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f>VLOOKUP(F9,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J9&amp;" "&amp;VLOOKUP(F9,참조!$A$2:$H$6,8,FALSE)</f>
+        <v>딜레이 0 초</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IFERROR(VLOOKUP(F10,참조!$A$2:$B$6,2,FALSE),"none")</f>
+        <v>근거리 – 사각</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(F10,참조!$A$2:$H$6,5,FALSE)&amp;" "&amp;H10&amp;" "&amp;VLOOKUP(F10,참조!$A$2:$H$6,6,FALSE)</f>
+        <v>거리 3 타일</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <f>VLOOKUP(F10,참조!$A$2:$H$6,7,FALSE)&amp;" "&amp;J10&amp;" "&amp;VLOOKUP(F10,참조!$A$2:$H$6,8,FALSE)</f>
+        <v>너비 3 타일</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +1135,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -927,7 +1161,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -953,7 +1187,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -979,7 +1213,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1005,7 +1239,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1038,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0179D40F-7109-4215-A11F-06631E23BBD4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1346,7 @@
       </c>
       <c r="F2">
         <f>실제!F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f>실제!H2</f>
@@ -1146,7 +1380,7 @@
       </c>
       <c r="F3">
         <f>실제!F3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>실제!H3</f>
@@ -1168,7 +1402,7 @@
       </c>
       <c r="C4" t="str">
         <f>실제!C4</f>
-        <v>Laser Gun</v>
+        <v>Rapper</v>
       </c>
       <c r="D4">
         <f>실제!D4</f>
@@ -1176,19 +1410,19 @@
       </c>
       <c r="E4">
         <f>실제!E4</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
         <f>실제!F4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f>실제!H4</f>
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="H4">
         <f>실제!J4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,11 +1432,11 @@
       </c>
       <c r="B5" t="str">
         <f>실제!B5</f>
-        <v>Sprite/Pistol</v>
+        <v>Sprite/LaserGun</v>
       </c>
       <c r="C5" t="str">
         <f>실제!C5</f>
-        <v>Pistol</v>
+        <v>Laser Gun 20</v>
       </c>
       <c r="D5">
         <f>실제!D5</f>
@@ -1210,19 +1444,189 @@
       </c>
       <c r="E5">
         <f>실제!E5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
         <f>실제!F5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>실제!H5</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <f>실제!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>실제!$A6</f>
+        <v>105</v>
+      </c>
+      <c r="B6" t="str">
+        <f>실제!B6</f>
+        <v>Sprite/LaserGun</v>
+      </c>
+      <c r="C6" t="str">
+        <f>실제!C6</f>
+        <v>Laser Gun 5</v>
+      </c>
+      <c r="D6">
+        <f>실제!D6</f>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f>실제!E6</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <f>실제!F6</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>실제!H6</f>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>실제!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>실제!$A7</f>
+        <v>106</v>
+      </c>
+      <c r="B7" t="str">
+        <f>실제!B7</f>
+        <v>Sprite/Pistol</v>
+      </c>
+      <c r="C7" t="str">
+        <f>실제!C7</f>
+        <v>Pistol2</v>
+      </c>
+      <c r="D7">
+        <f>실제!D7</f>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f>실제!E7</f>
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <f>실제!F7</f>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>실제!H7</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>실제!J7</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>실제!$A8</f>
+        <v>107</v>
+      </c>
+      <c r="B8" t="str">
+        <f>실제!B8</f>
+        <v>itemaluminumbat</v>
+      </c>
+      <c r="C8" t="str">
+        <f>실제!C8</f>
+        <v>Bat</v>
+      </c>
+      <c r="D8">
+        <f>실제!D8</f>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>실제!E8</f>
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <f>실제!F8</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>실제!H8</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>실제!J8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>실제!$A9</f>
+        <v>108</v>
+      </c>
+      <c r="B9" t="str">
+        <f>실제!B9</f>
+        <v>BC32</v>
+      </c>
+      <c r="C9" t="str">
+        <f>실제!C9</f>
+        <v>Targeting</v>
+      </c>
+      <c r="D9">
+        <f>실제!D9</f>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>실제!E9</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f>실제!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>실제!H9</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f>실제!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>실제!$A10</f>
+        <v>109</v>
+      </c>
+      <c r="B10" t="str">
+        <f>실제!B10</f>
+        <v>Pickaxe</v>
+      </c>
+      <c r="C10" t="str">
+        <f>실제!C10</f>
+        <v>PickFuck</v>
+      </c>
+      <c r="D10">
+        <f>실제!D10</f>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>실제!E10</f>
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <f>실제!F10</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>실제!H10</f>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>실제!J10</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
